--- a/analysis files/thesis_analysis_06.06.22.xlsx
+++ b/analysis files/thesis_analysis_06.06.22.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP Elitebook 840\Desktop\Master Thesis\analysis files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\work\pypsa_thesis\analysis files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E451EAD4-50A3-46CE-AA0A-E2D220A5AB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5E2F76-D196-45BB-8185-9D8943164D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{A6598F45-066A-4320-BC66-78BBF5185F81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A6598F45-066A-4320-BC66-78BBF5185F81}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tech-Eco spec" sheetId="5" r:id="rId1"/>
-    <sheet name="Case 1" sheetId="1" r:id="rId2"/>
-    <sheet name="Case 2" sheetId="6" r:id="rId3"/>
-    <sheet name="Case 3" sheetId="7" r:id="rId4"/>
+    <sheet name="Case 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Case 2" sheetId="6" r:id="rId2"/>
+    <sheet name="Case 3" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
   <si>
     <t>case</t>
   </si>
@@ -55,9 +54,6 @@
   </si>
   <si>
     <t>p_nom_extendable</t>
-  </si>
-  <si>
-    <t>efficiency</t>
   </si>
   <si>
     <t>generators: TRUE
@@ -85,60 +81,6 @@
   </si>
   <si>
     <t>TN-H2-G</t>
-  </si>
-  <si>
-    <t>carrier</t>
-  </si>
-  <si>
-    <t>capital_costs (Eur/MWh)</t>
-  </si>
-  <si>
-    <t>marginal_costs (Eur/MWh)</t>
-  </si>
-  <si>
-    <t>Hydrogen</t>
-  </si>
-  <si>
-    <t>Run_of_River</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>Water_Reservoir</t>
-  </si>
-  <si>
-    <t>Pumped_Storage</t>
-  </si>
-  <si>
-    <t>Solar</t>
-  </si>
-  <si>
-    <t>Wind_Offshore</t>
-  </si>
-  <si>
-    <t>Wind_Onshore</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>Coal</t>
-  </si>
-  <si>
-    <t>Lignite</t>
-  </si>
-  <si>
-    <t>Oil</t>
-  </si>
-  <si>
-    <t>Electrolysis</t>
-  </si>
-  <si>
-    <t>H2_pipeline_repurposed</t>
-  </si>
-  <si>
-    <t>H2_pipeline</t>
   </si>
   <si>
     <t>1 year (2040), 24h</t>
@@ -503,18 +445,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -556,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -582,37 +518,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -936,627 +864,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A34EC9-A69F-4C7B-83A6-695F96931D16}">
-  <dimension ref="A1:N17"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="22">
-        <v>2030</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="F1" s="22">
-        <v>2040</v>
-      </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="K1" s="22">
-        <v>2050</v>
-      </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13"/>
-      <c r="F3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="13"/>
-      <c r="K3" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="14">
-        <v>12464.1760387178</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="14">
-        <v>12464.1760387178</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="14">
-        <v>12464.1760387178</v>
-      </c>
-      <c r="M4" s="14">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="14">
-        <v>11586.7943898351</v>
-      </c>
-      <c r="C5" s="14">
-        <v>14.8936170212765</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0.47</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="14">
-        <v>11586.7943898351</v>
-      </c>
-      <c r="H5" s="14">
-        <v>14.8936170212765</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0.47</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="14">
-        <v>11586.7943898351</v>
-      </c>
-      <c r="M5" s="14">
-        <v>14.8936170212765</v>
-      </c>
-      <c r="N5" s="13">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="F6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="K6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="14">
-        <v>7389.3840258119299</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="14">
-        <v>7389.3840258119299</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="14">
-        <v>7389.3840258119299</v>
-      </c>
-      <c r="M7" s="14">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="14">
-        <v>1937.8705137955101</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1621.4385613491399</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>1</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="14">
-        <v>1476.2735883175701</v>
-      </c>
-      <c r="M8" s="14">
-        <v>0</v>
-      </c>
-      <c r="N8" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="14">
-        <v>6588.4906278897197</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="14">
-        <v>6036.8729950209599</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
-        <v>1</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="14">
-        <v>5882.6189239283904</v>
-      </c>
-      <c r="M9" s="14">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="14">
-        <v>4003.5786674985902</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="14">
-        <v>3767.1638950148699</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="14">
-        <v>3707.2739012269099</v>
-      </c>
-      <c r="M10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="14">
-        <v>4126.1553872146796</v>
-      </c>
-      <c r="C11" s="14">
-        <v>38.855172413793099</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="14">
-        <v>4034.6071472850999</v>
-      </c>
-      <c r="H11" s="14">
-        <v>38.167796610169397</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0.59</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="14">
-        <v>3943.6839073555102</v>
-      </c>
-      <c r="M11" s="14">
-        <v>37.5</v>
-      </c>
-      <c r="N11" s="13">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="16">
-        <v>14582.356401244</v>
-      </c>
-      <c r="C12" s="14">
-        <v>28.1969696969696</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.33</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="16">
-        <v>14582.356401244</v>
-      </c>
-      <c r="H12" s="14">
-        <v>28.1969696969696</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0.33</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="16">
-        <v>14582.356401244</v>
-      </c>
-      <c r="M12" s="14">
-        <v>28.1969696969696</v>
-      </c>
-      <c r="N12" s="13">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="16">
-        <v>14582.356401244</v>
-      </c>
-      <c r="C13" s="14">
-        <v>12.2878787878787</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.33</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="16">
-        <v>14582.356401244</v>
-      </c>
-      <c r="H13" s="14">
-        <v>12.2878787878787</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0.33</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="16">
-        <v>14582.356401244</v>
-      </c>
-      <c r="M13" s="14">
-        <v>12.2878787878787</v>
-      </c>
-      <c r="N13" s="13">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="14">
-        <v>1577.9503086120101</v>
-      </c>
-      <c r="C14" s="14">
-        <v>148.85714285714201</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="14">
-        <v>1559.0196081839899</v>
-      </c>
-      <c r="H14" s="14">
-        <v>148.85714285714201</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="14">
-        <v>1538.7472410893099</v>
-      </c>
-      <c r="M14" s="14">
-        <v>148.85714285714201</v>
-      </c>
-      <c r="N14" s="13">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="14">
-        <v>1885.99506583333</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0.68</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="14">
-        <v>1238.41144372895</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0.72</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="14">
-        <v>1012.85374634378</v>
-      </c>
-      <c r="M15" s="14">
-        <v>0</v>
-      </c>
-      <c r="N15" s="13">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="14">
-        <v>459.518536218902</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="F16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="14">
-        <v>422.46053621890201</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="K16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="14">
-        <v>385.84370288556897</v>
-      </c>
-      <c r="M16" s="14">
-        <v>0</v>
-      </c>
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="14">
-        <v>982.87838021812195</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="F17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="14">
-        <v>903.61388021812195</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="K17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="14">
-        <v>825.29300521812195</v>
-      </c>
-      <c r="M17" s="14">
-        <v>0</v>
-      </c>
-      <c r="N17" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA739057-997B-455B-B2E8-326BAFBC818A}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,25 +907,25 @@
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>2</v>
@@ -1623,40 +936,40 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="12">
         <v>3.2371094579999999</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="19">
+        <v>21</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="14">
         <v>0</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="14">
         <v>11588.555236526599</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="14">
         <v>2201234.4300000002</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N2" s="4"/>
     </row>
@@ -1665,40 +978,40 @@
         <v>1.2</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="12">
         <v>28.3</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="19">
+        <v>22</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="14">
         <v>0</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="14">
         <v>90795.730428154697</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="14">
         <v>20374051.120000001</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N3" s="4"/>
     </row>
@@ -1707,72 +1020,72 @@
         <v>1.3</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="12">
         <v>78.59</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="19">
+        <v>26</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="14">
         <v>0</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="14">
         <v>242872.099445078</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="14">
         <v>58942686.640000001</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="15">
         <v>1.4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="12">
         <v>3.2371094579999999</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="21" t="s">
-        <v>55</v>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="N5" s="4"/>
     </row>
@@ -1781,40 +1094,40 @@
         <v>1.5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F6" s="12" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G6" s="12">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="19">
+        <v>28</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="14">
         <v>0</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="14">
         <v>24.222163091299301</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="14">
         <v>5635.26</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N6" s="4"/>
     </row>
@@ -1823,40 +1136,40 @@
         <v>1.6</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G7" s="12">
         <v>7.53</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="19">
+        <v>32</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="14">
         <v>0</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="14">
         <v>28173.755271078899</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="14">
         <v>5425020.7599999998</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N7" s="4"/>
     </row>
@@ -1865,40 +1178,40 @@
         <v>1.7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="G8" s="12">
         <v>13.89</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="19">
+        <v>30</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="14">
         <v>0</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="14">
         <v>48110.052888745602</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="14">
         <v>10413783.74</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N8" s="4"/>
     </row>
@@ -1911,11 +1224,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385CD292-39F1-44C3-80FC-55799F67FE4B}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
@@ -1946,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>4</v>
@@ -1955,25 +1268,25 @@
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>2</v>
@@ -1984,40 +1297,40 @@
         <v>2.1</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>58</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="19">
+        <v>40</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="14">
         <v>0</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="14">
         <v>5160158.9518799102</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="14">
         <v>6996553.6100000003</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="N2" s="4"/>
     </row>
@@ -2026,40 +1339,40 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>58</v>
+        <v>11</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="19">
+        <v>43</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="14">
         <v>0</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="14">
         <v>43528465.491502397</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="14">
         <v>66864735.689999998</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="N3" s="4"/>
     </row>
@@ -2068,65 +1381,65 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>2.4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>58</v>
+        <v>11</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="11"/>
       <c r="N5" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G8" s="24">
+      <c r="G8" s="18">
         <v>78805572.819999993</v>
       </c>
     </row>
@@ -2136,7 +1449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE738CD-E337-41B1-92CA-6FB59C9733B5}">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -2171,7 +1484,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>4</v>
@@ -2180,28 +1493,28 @@
         <v>1</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>2</v>
@@ -2212,33 +1525,33 @@
         <v>3.1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="12"/>
-      <c r="H2" s="23" t="s">
-        <v>58</v>
+      <c r="H2" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
       <c r="N2" s="11" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="O2" s="4"/>
     </row>
@@ -2247,31 +1560,31 @@
         <v>3.2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="12"/>
-      <c r="H3" s="23" t="s">
-        <v>58</v>
+      <c r="H3" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="11" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="O3" s="4"/>
     </row>
@@ -2280,38 +1593,38 @@
         <v>3.3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>58</v>
+        <v>11</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="11" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="O4" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H7" s="24">
+      <c r="H7" s="18">
         <v>78805572.819999993</v>
       </c>
     </row>
